--- a/SCH-STH/Impact assessments/Kenya/ke_sch_sth_sppm_202403_2_urine.xlsx
+++ b/SCH-STH/Impact assessments/Kenya/ke_sch_sth_sppm_202403_2_urine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\SCH-STH\Impact assessments\Kenya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A964969-F9C1-4BC7-9E83-C7E5F86FF39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ADFCD5-1908-44D4-9923-EE9B40DA9715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>begin_repeat</t>
   </si>
   <si>
-    <t>group_ey0ma62</t>
-  </si>
-  <si>
     <t>Urine Slide</t>
   </si>
   <si>
@@ -343,6 +340,9 @@
   </si>
   <si>
     <t>read_only</t>
+  </si>
+  <si>
+    <t>ke_u_202403</t>
   </si>
 </sst>
 </file>
@@ -769,7 +769,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,25 +794,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>2</v>
@@ -821,7 +821,7 @@
         <v>4</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -841,22 +841,22 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -870,10 +870,10 @@
         <v>14</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -881,13 +881,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -895,13 +895,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -909,24 +909,24 @@
         <v>12</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="I8" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -934,10 +934,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -946,134 +946,134 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="H11" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="H12" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="H13" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="9"/>
       <c r="F15" s="9"/>
       <c r="I15" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="9"/>
       <c r="F16" s="9"/>
       <c r="I16" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1081,42 +1081,42 @@
         <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="G17" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="I17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1124,21 +1124,21 @@
         <v>12</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1164,7 +1164,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1184,13 +1184,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>15</v>
@@ -1198,112 +1198,112 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1328,30 +1328,30 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1360,15 +1360,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008F61D857ACC8084D9287671D8B7E15F4" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c3a67db788bfb057b2db4972c06362d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="92042fd9-f4c9-49ed-97f1-ba485e322b1e" xmlns:ns3="744cc826-a471-4feb-879c-6424ce8a761f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="13059b5e6b4741244ec9ec4e04bff113" ns2:_="" ns3:_="">
     <xsd:import namespace="92042fd9-f4c9-49ed-97f1-ba485e322b1e"/>
@@ -1603,15 +1594,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6F5C3EE-D7C6-4922-A0D6-EABD3636B231}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296999DF-1374-4C38-B168-98FE6106F4CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1628,4 +1620,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6F5C3EE-D7C6-4922-A0D6-EABD3636B231}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SCH-STH/Impact assessments/Kenya/ke_sch_sth_sppm_202403_2_urine.xlsx
+++ b/SCH-STH/Impact assessments/Kenya/ke_sch_sth_sppm_202403_2_urine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\SCH-STH\Impact assessments\Kenya\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Kenya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ADFCD5-1908-44D4-9923-EE9B40DA9715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079E0C74-F6E1-421E-888F-A3132B111838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
   <si>
     <t>type</t>
   </si>
@@ -81,15 +81,9 @@
     <t>Urine Slide</t>
   </si>
   <si>
-    <t>barcode</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
-    <t>. &gt; 400000 and . &lt; 500000</t>
-  </si>
-  <si>
     <t>Schistosom_Hematobium</t>
   </si>
   <si>
@@ -177,12 +171,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>(2024 Mar) - 3. SCH/STH – Urine</t>
-  </si>
-  <si>
-    <t>ke_sch_sth_sppm_202403_2_urine</t>
-  </si>
-  <si>
     <t>select_one team</t>
   </si>
   <si>
@@ -243,51 +231,6 @@
     <t>C1</t>
   </si>
   <si>
-    <t>select_one id_type</t>
-  </si>
-  <si>
-    <t>Will you scann the barcode or enter the code manualy</t>
-  </si>
-  <si>
-    <t>Child_ID_Survey_Barcode</t>
-  </si>
-  <si>
-    <t>Child ID Survey Barcode</t>
-  </si>
-  <si>
-    <t>regex(., '^(400000|4[0-9]{5}|500000)$')</t>
-  </si>
-  <si>
-    <t>Remove response, swipe forward to enter manually</t>
-  </si>
-  <si>
-    <t>Child_ID_Enter</t>
-  </si>
-  <si>
-    <t>Child ID Enter</t>
-  </si>
-  <si>
-    <t>6 Digits</t>
-  </si>
-  <si>
-    <t>Out of range! Must be between 400000 and 500000</t>
-  </si>
-  <si>
-    <t>Re_enter_Child_ID</t>
-  </si>
-  <si>
-    <t>Re enter Child ID</t>
-  </si>
-  <si>
-    <t>Enter exact as previous</t>
-  </si>
-  <si>
-    <t>. = ${Child_ID_Enter}</t>
-  </si>
-  <si>
-    <t>ID MUST be same as previous one</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
@@ -309,21 +252,6 @@
     <t>join(' ', ${u_code_id})</t>
   </si>
   <si>
-    <t>u_id_type</t>
-  </si>
-  <si>
-    <t>${u_id_type} = 'Scanner'</t>
-  </si>
-  <si>
-    <t>${u_id_type} != 'Scanner'</t>
-  </si>
-  <si>
-    <t>u_code_id_calculate</t>
-  </si>
-  <si>
-    <t>if(${u_id_type} = 'Scanner', concat(${Child_ID_Survey_Barcode}) ,concat(${Child_ID_Enter}))</t>
-  </si>
-  <si>
     <t>if (${C2} = 1,'',substring-after(${C1},${u_code_id}))</t>
   </si>
   <si>
@@ -333,16 +261,19 @@
     <t>not(selected(${C3}, ${u_code_id}))</t>
   </si>
   <si>
-    <t>concat(${u_code_id_calculate})</t>
-  </si>
-  <si>
     <t>allou_choice_duplicates</t>
   </si>
   <si>
     <t>read_only</t>
   </si>
   <si>
-    <t>ke_u_202403</t>
+    <t>ke_u_202403_v1_1</t>
+  </si>
+  <si>
+    <t>ke_sch_sth_sppm_202403_2_urine_v1_1</t>
+  </si>
+  <si>
+    <t>(2024 Mar) - 3. SCH/STH – Urine V1.1</t>
   </si>
 </sst>
 </file>
@@ -766,9 +697,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -794,25 +725,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>2</v>
@@ -821,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -841,22 +772,22 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -870,10 +801,10 @@
         <v>14</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -881,13 +812,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -895,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -909,24 +840,24 @@
         <v>12</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -934,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>18</v>
@@ -946,225 +877,119 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="7" t="s">
+    </row>
+    <row r="11" spans="1:12" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="I11" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>97</v>
+        <v>72</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="C13" s="7" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="I15" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="I16" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1184,13 +1009,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>15</v>
@@ -1198,112 +1023,112 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1315,43 +1140,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
